--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
+++ b/Logging_STOCKHOLMS_LAN/Översikt STOCKHOLMS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>45113</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45113</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>45113</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         <v>45113</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>45113</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>45114</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45114</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45118</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>45118</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>45118</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45118</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45119</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>45124</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>45125</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>45126</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>45126</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45126</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>45131</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>45132</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45132</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
